--- a/scores.xlsx
+++ b/scores.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">Unnamed: 0</t>
+  </si>
   <si>
     <t xml:space="preserve">#Ronde</t>
   </si>
@@ -131,17 +134,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -336,10 +335,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -366,12 +365,18 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -379,7 +384,10 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -387,7 +395,10 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -395,7 +406,10 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -403,7 +417,10 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -411,7 +428,10 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -419,7 +439,10 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -427,7 +450,10 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -435,7 +461,10 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -443,7 +472,10 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -451,7 +483,10 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -459,7 +494,10 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
     </row>
@@ -467,7 +505,10 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -475,7 +516,10 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
     </row>
@@ -483,7 +527,10 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
     </row>
@@ -491,7 +538,10 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
     </row>
@@ -499,7 +549,10 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
     </row>
@@ -507,7 +560,10 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
     </row>
@@ -515,7 +571,10 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
     </row>
@@ -523,7 +582,10 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
     </row>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>#Ronde</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>EO5</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Global Rank</t>
+  </si>
+  <si>
+    <t>NS/EO Rank</t>
   </si>
 </sst>
 </file>
@@ -54,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +79,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -89,7 +92,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -112,63 +122,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,8 +161,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -484,24 +469,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -509,25 +494,25 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -541,364 +526,418 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="5">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>15</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="5">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>16</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="5">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>17</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="5">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>18</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="5">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>19</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="5">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="8">
         <v>20</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>#Ronde</t>
-  </si>
-  <si>
-    <t>NS1</t>
-  </si>
-  <si>
-    <t>NS2</t>
-  </si>
-  <si>
-    <t>NS3</t>
-  </si>
-  <si>
-    <t>NS4</t>
-  </si>
-  <si>
-    <t>EO1</t>
-  </si>
-  <si>
-    <t>EO2</t>
-  </si>
-  <si>
-    <t>EO3</t>
-  </si>
-  <si>
-    <t>EO4</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Rang global</t>
-  </si>
-  <si>
-    <t>Rang parmi autres NS/EO</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,195 +420,681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>#Ronde</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NS1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NS2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>NS3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>NS4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EO1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EO2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>EO3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EO4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" t="n">
+        <v>7.245688373094719</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.245688373094719</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.905694150420948</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-12.94217910554478</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-12.14495780149112</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.514693182963201</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-12.14495780149112</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-12.54990039801113</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" t="n">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.23606797749979</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-2.23606797749979</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-15.32970971675589</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-15.32970971675589</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C4" t="n">
+        <v>6.708203932499369</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.708203932499369</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.88194301613413</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-19.36491673103708</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-20.85665361461421</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-3.872983346207417</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-20.85665361461421</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-25.98076211353316</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C5" t="n">
+        <v>1.58113883008419</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.58113883008419</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.743416490252569</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5.244044240850758</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-14.74788120375263</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-13.69306393762915</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-14.74788120375263</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-15.41103500742244</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15.49193338482967</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.49193338482967</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.49193338482967</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.49193338482967</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C7" t="n">
+        <v>10.95445115010332</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-10.95445115010332</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.48808848170152</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-10.48808848170152</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10.48808848170152</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-10.95445115010332</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-10.48808848170152</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.95445115010332</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C8" t="n">
+        <v>4.743416490252569</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2.738612787525831</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.58113883008419</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-4.183300132670378</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.57241150239744</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.23024947075771</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.9164338901763</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15.24795068197691</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="C9" t="n">
+        <v>3.535533905932738</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.58113883008419</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4.183300132670378</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.58113883008419</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.5092560861063</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.1339255365637</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14.23024947075771</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13.5092560861063</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.745966692414834</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-7.745966692414834</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-7.745966692414834</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.41640786499874</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.41640786499874</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.41640786499874</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-7.745966692414834</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13.41640786499874</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.366600265340756</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.071067811865476</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.745966692414834</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-13.41640786499874</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-13.41640786499874</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-13.78404875209022</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.745966692414834</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-13.78404875209022</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.745966692414834</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-12.64911064067352</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.071067811865476</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.071067811865476</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-13.0384048104053</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-13.41640786499874</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-13.0384048104053</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-13.41640786499874</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-11.18033988749895</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.2469507659596</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-10.72380529476361</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11.61895003862225</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11.18033988749895</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11.61895003862225</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-11.18033988749895</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11.61895003862225</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-4.183300132670378</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.535533905932738</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.535533905932738</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-2.738612787525831</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13.87443692551161</v>
+      </c>
+      <c r="H14" t="n">
+        <v>13.87443692551161</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14.9164338901763</v>
+      </c>
+      <c r="J14" t="n">
+        <v>14.57737973711325</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.519202405202649</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.743416490252569</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.743416490252569</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-9.354143466934854</v>
+      </c>
+      <c r="G15" t="n">
+        <v>17.39252713092609</v>
+      </c>
+      <c r="H15" t="n">
+        <v>17.39252713092609</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16.80773631397161</v>
+      </c>
+      <c r="J15" t="n">
+        <v>20.3100960115899</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.354143466934854</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-10.12422836565829</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.874208829065749</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-9.082951062292475</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10.8397416943394</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-9.082951062292475</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-8.514693182963201</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9.874208829065749</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-11.61895003862225</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.61895003862225</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11.61895003862225</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-11.61895003862225</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-12.0415945787923</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-12.0415945787923</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11.18033988749895</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.18033988749895</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>34.26185673815338</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.88365136451951</v>
+      </c>
+      <c r="E18" t="n">
+        <v>65.77242059439794</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-66.9820973441078</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20.18953336749952</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15.82762284305933</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-18.42789214501639</v>
+      </c>
+      <c r="J18" t="n">
+        <v>39.70910981909345</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rang global</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rang camp</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="H20" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="I20" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
+      <c r="J20" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>